--- a/www.eia.gov/forecasts/steo/xls/Fig2.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig2.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -62,7 +62,7 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Crude oil price is composite refiner acquisition cost.  Retail prices include state and federal taxes.</t>
@@ -660,88 +660,88 @@
                   <c:v>1.1609333333333334</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2008809523809525</c:v>
+                  <c:v>1.2011190476190479</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1486857142857143</c:v>
+                  <c:v>1.1346380952380952</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1169761904761908</c:v>
+                  <c:v>1.1188809523809526</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.0406785714285718</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0979632857142858</c:v>
+                  <c:v>1.1230476190476193</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0480732857142858</c:v>
+                  <c:v>1.027222761904762</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1247712857142858</c:v>
+                  <c:v>1.0919637619047617</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2013502857142859</c:v>
+                  <c:v>1.1740127619047618</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2597152857142857</c:v>
+                  <c:v>1.2371607619047618</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2860802857142859</c:v>
+                  <c:v>1.2709567619047619</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2596997619047618</c:v>
+                  <c:v>1.249538238095238</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.236736761904762</c:v>
+                  <c:v>1.2300542380952382</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1772957619047619</c:v>
+                  <c:v>1.1729652380952382</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1203567619047621</c:v>
+                  <c:v>1.1175922380952383</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0455837619047617</c:v>
+                  <c:v>1.043836238095238</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.97544976190476174</c:v>
+                  <c:v>0.97775323809523806</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.94580176190476184</c:v>
+                  <c:v>0.94612923809523819</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.96492576190476198</c:v>
+                  <c:v>0.9730122380952384</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0881717619047619</c:v>
+                  <c:v>1.0897852380952382</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.179581238095238</c:v>
+                  <c:v>1.1800497142857143</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2352327142857142</c:v>
+                  <c:v>1.2318441904761903</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2729477142857142</c:v>
+                  <c:v>1.2698251904761906</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2575797142857141</c:v>
+                  <c:v>1.2544181904761904</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2272421904761905</c:v>
+                  <c:v>1.2243906666666666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1730801904761907</c:v>
+                  <c:v>1.1707086666666668</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1113196666666669</c:v>
+                  <c:v>1.109461142857143</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0420496666666665</c:v>
+                  <c:v>1.0406521428571431</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.95317514285714289</c:v>
+                  <c:v>0.95555761904761916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,8 +756,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="80"/>
-        <c:axId val="673155952"/>
-        <c:axId val="673156512"/>
+        <c:axId val="625608592"/>
+        <c:axId val="625609152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1154,76 +1154,76 @@
                   <c:v>2.2542500000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.312249</c:v>
+                  <c:v>2.3490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.262359</c:v>
+                  <c:v>2.2653180000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3390569999999999</c:v>
+                  <c:v>2.3300589999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4156360000000001</c:v>
+                  <c:v>2.4121079999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4740009999999999</c:v>
+                  <c:v>2.4752559999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5003660000000001</c:v>
+                  <c:v>2.5090520000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.497795</c:v>
+                  <c:v>2.5114429999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4748320000000001</c:v>
+                  <c:v>2.491959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.4153910000000001</c:v>
+                  <c:v>2.4348700000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3584520000000002</c:v>
+                  <c:v>2.3794970000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.2836789999999998</c:v>
+                  <c:v>2.3057409999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.2135449999999999</c:v>
+                  <c:v>2.2396579999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.183897</c:v>
+                  <c:v>2.2080340000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2030210000000001</c:v>
+                  <c:v>2.2349170000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.3262670000000001</c:v>
+                  <c:v>2.3516900000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.4414859999999998</c:v>
+                  <c:v>2.4657640000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.520947</c:v>
+                  <c:v>2.5413679999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.558662</c:v>
+                  <c:v>2.5793490000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.5432939999999999</c:v>
+                  <c:v>2.5639419999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5367660000000001</c:v>
+                  <c:v>2.5577239999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4826040000000003</c:v>
+                  <c:v>2.5040420000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4446530000000002</c:v>
+                  <c:v>2.4666040000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.3753829999999998</c:v>
+                  <c:v>2.3977950000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3103180000000001</c:v>
+                  <c:v>2.3365100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,88 +1610,88 @@
                   <c:v>1.0166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0176190476190476</c:v>
+                  <c:v>1.0173809523809523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1007142857142858</c:v>
+                  <c:v>1.1147619047619048</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0645238095238094</c:v>
+                  <c:v>1.0626190476190476</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.2135714285714285</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2259523809523809</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2619047619047619</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.3095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.3095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.3095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3095238095238095</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3095238095238095</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.3571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.3571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3571428571428572</c:v>
+                  <c:v>1.3809523809523809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,8 +1708,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673155952"/>
-        <c:axId val="673156512"/>
+        <c:axId val="625608592"/>
+        <c:axId val="625609152"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1787,10 +1787,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,11 +1823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673157072"/>
-        <c:axId val="673157632"/>
+        <c:axId val="625609712"/>
+        <c:axId val="625610272"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="673155952"/>
+        <c:axId val="625608592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,7 +1844,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673156512"/>
+        <c:crossAx val="625609152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1855,7 +1855,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673156512"/>
+        <c:axId val="625609152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1883,12 +1883,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673155952"/>
+        <c:crossAx val="625608592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673157072"/>
+        <c:axId val="625609712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -1905,12 +1905,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673157632"/>
+        <c:crossAx val="625610272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673157632"/>
+        <c:axId val="625610272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1927,7 +1927,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673157072"/>
+        <c:crossAx val="625609712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2086,7 +2086,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2814,10 +2814,10 @@
             <v>2.2185000000000001</v>
           </cell>
           <cell r="C72">
-            <v>1.0176190476190476</v>
+            <v>1.0173809523809523</v>
           </cell>
           <cell r="E72">
-            <v>1.2008809523809525</v>
+            <v>1.2011190476190479</v>
           </cell>
         </row>
         <row r="73">
@@ -2828,10 +2828,10 @@
             <v>2.2494000000000001</v>
           </cell>
           <cell r="C73">
-            <v>1.1007142857142858</v>
+            <v>1.1147619047619048</v>
           </cell>
           <cell r="E73">
-            <v>1.1486857142857143</v>
+            <v>1.1346380952380952</v>
           </cell>
         </row>
         <row r="74">
@@ -2842,10 +2842,10 @@
             <v>2.1815000000000002</v>
           </cell>
           <cell r="C74">
-            <v>1.0645238095238094</v>
+            <v>1.0626190476190476</v>
           </cell>
           <cell r="E74">
-            <v>1.1169761904761908</v>
+            <v>1.1188809523809526</v>
           </cell>
         </row>
         <row r="75">
@@ -2867,13 +2867,13 @@
             <v>42736</v>
           </cell>
           <cell r="B76">
-            <v>2.312249</v>
+            <v>2.3490000000000002</v>
           </cell>
           <cell r="C76">
-            <v>1.2142857142857142</v>
+            <v>1.2259523809523809</v>
           </cell>
           <cell r="E76">
-            <v>1.0979632857142858</v>
+            <v>1.1230476190476193</v>
           </cell>
         </row>
         <row r="77">
@@ -2881,13 +2881,13 @@
             <v>42767</v>
           </cell>
           <cell r="B77">
-            <v>2.262359</v>
+            <v>2.2653180000000002</v>
           </cell>
           <cell r="C77">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E77">
-            <v>1.0480732857142858</v>
+            <v>1.027222761904762</v>
           </cell>
         </row>
         <row r="78">
@@ -2895,13 +2895,13 @@
             <v>42795</v>
           </cell>
           <cell r="B78">
-            <v>2.3390569999999999</v>
+            <v>2.3300589999999999</v>
           </cell>
           <cell r="C78">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E78">
-            <v>1.1247712857142858</v>
+            <v>1.0919637619047617</v>
           </cell>
         </row>
         <row r="79">
@@ -2909,13 +2909,13 @@
             <v>42826</v>
           </cell>
           <cell r="B79">
-            <v>2.4156360000000001</v>
+            <v>2.4121079999999999</v>
           </cell>
           <cell r="C79">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E79">
-            <v>1.2013502857142859</v>
+            <v>1.1740127619047618</v>
           </cell>
         </row>
         <row r="80">
@@ -2923,13 +2923,13 @@
             <v>42856</v>
           </cell>
           <cell r="B80">
-            <v>2.4740009999999999</v>
+            <v>2.4752559999999999</v>
           </cell>
           <cell r="C80">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E80">
-            <v>1.2597152857142857</v>
+            <v>1.2371607619047618</v>
           </cell>
         </row>
         <row r="81">
@@ -2937,13 +2937,13 @@
             <v>42887</v>
           </cell>
           <cell r="B81">
-            <v>2.5003660000000001</v>
+            <v>2.5090520000000001</v>
           </cell>
           <cell r="C81">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E81">
-            <v>1.2860802857142859</v>
+            <v>1.2709567619047619</v>
           </cell>
         </row>
         <row r="82">
@@ -2951,13 +2951,13 @@
             <v>42917</v>
           </cell>
           <cell r="B82">
-            <v>2.497795</v>
+            <v>2.5114429999999999</v>
           </cell>
           <cell r="C82">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E82">
-            <v>1.2596997619047618</v>
+            <v>1.249538238095238</v>
           </cell>
         </row>
         <row r="83">
@@ -2965,13 +2965,13 @@
             <v>42948</v>
           </cell>
           <cell r="B83">
-            <v>2.4748320000000001</v>
+            <v>2.491959</v>
           </cell>
           <cell r="C83">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E83">
-            <v>1.236736761904762</v>
+            <v>1.2300542380952382</v>
           </cell>
         </row>
         <row r="84">
@@ -2979,13 +2979,13 @@
             <v>42979</v>
           </cell>
           <cell r="B84">
-            <v>2.4153910000000001</v>
+            <v>2.4348700000000001</v>
           </cell>
           <cell r="C84">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E84">
-            <v>1.1772957619047619</v>
+            <v>1.1729652380952382</v>
           </cell>
         </row>
         <row r="85">
@@ -2993,13 +2993,13 @@
             <v>43009</v>
           </cell>
           <cell r="B85">
-            <v>2.3584520000000002</v>
+            <v>2.3794970000000002</v>
           </cell>
           <cell r="C85">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E85">
-            <v>1.1203567619047621</v>
+            <v>1.1175922380952383</v>
           </cell>
         </row>
         <row r="86">
@@ -3007,13 +3007,13 @@
             <v>43040</v>
           </cell>
           <cell r="B86">
-            <v>2.2836789999999998</v>
+            <v>2.3057409999999998</v>
           </cell>
           <cell r="C86">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E86">
-            <v>1.0455837619047617</v>
+            <v>1.043836238095238</v>
           </cell>
         </row>
         <row r="87">
@@ -3021,13 +3021,13 @@
             <v>43070</v>
           </cell>
           <cell r="B87">
-            <v>2.2135449999999999</v>
+            <v>2.2396579999999999</v>
           </cell>
           <cell r="C87">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E87">
-            <v>0.97544976190476174</v>
+            <v>0.97775323809523806</v>
           </cell>
         </row>
         <row r="88">
@@ -3035,13 +3035,13 @@
             <v>43101</v>
           </cell>
           <cell r="B88">
-            <v>2.183897</v>
+            <v>2.2080340000000001</v>
           </cell>
           <cell r="C88">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E88">
-            <v>0.94580176190476184</v>
+            <v>0.94612923809523819</v>
           </cell>
         </row>
         <row r="89">
@@ -3049,13 +3049,13 @@
             <v>43132</v>
           </cell>
           <cell r="B89">
-            <v>2.2030210000000001</v>
+            <v>2.2349170000000003</v>
           </cell>
           <cell r="C89">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E89">
-            <v>0.96492576190476198</v>
+            <v>0.9730122380952384</v>
           </cell>
         </row>
         <row r="90">
@@ -3063,13 +3063,13 @@
             <v>43160</v>
           </cell>
           <cell r="B90">
-            <v>2.3262670000000001</v>
+            <v>2.3516900000000001</v>
           </cell>
           <cell r="C90">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E90">
-            <v>1.0881717619047619</v>
+            <v>1.0897852380952382</v>
           </cell>
         </row>
         <row r="91">
@@ -3077,13 +3077,13 @@
             <v>43191</v>
           </cell>
           <cell r="B91">
-            <v>2.4414859999999998</v>
+            <v>2.4657640000000001</v>
           </cell>
           <cell r="C91">
-            <v>1.2619047619047619</v>
+            <v>1.2857142857142858</v>
           </cell>
           <cell r="E91">
-            <v>1.179581238095238</v>
+            <v>1.1800497142857143</v>
           </cell>
         </row>
         <row r="92">
@@ -3091,13 +3091,13 @@
             <v>43221</v>
           </cell>
           <cell r="B92">
-            <v>2.520947</v>
+            <v>2.5413679999999998</v>
           </cell>
           <cell r="C92">
-            <v>1.2857142857142858</v>
+            <v>1.3095238095238095</v>
           </cell>
           <cell r="E92">
-            <v>1.2352327142857142</v>
+            <v>1.2318441904761903</v>
           </cell>
         </row>
         <row r="93">
@@ -3105,13 +3105,13 @@
             <v>43252</v>
           </cell>
           <cell r="B93">
-            <v>2.558662</v>
+            <v>2.5793490000000001</v>
           </cell>
           <cell r="C93">
-            <v>1.2857142857142858</v>
+            <v>1.3095238095238095</v>
           </cell>
           <cell r="E93">
-            <v>1.2729477142857142</v>
+            <v>1.2698251904761906</v>
           </cell>
         </row>
         <row r="94">
@@ -3119,13 +3119,13 @@
             <v>43282</v>
           </cell>
           <cell r="B94">
-            <v>2.5432939999999999</v>
+            <v>2.5639419999999999</v>
           </cell>
           <cell r="C94">
-            <v>1.2857142857142858</v>
+            <v>1.3095238095238095</v>
           </cell>
           <cell r="E94">
-            <v>1.2575797142857141</v>
+            <v>1.2544181904761904</v>
           </cell>
         </row>
         <row r="95">
@@ -3133,13 +3133,13 @@
             <v>43313</v>
           </cell>
           <cell r="B95">
-            <v>2.5367660000000001</v>
+            <v>2.5577239999999999</v>
           </cell>
           <cell r="C95">
-            <v>1.3095238095238095</v>
+            <v>1.3333333333333333</v>
           </cell>
           <cell r="E95">
-            <v>1.2272421904761905</v>
+            <v>1.2243906666666666</v>
           </cell>
         </row>
         <row r="96">
@@ -3147,13 +3147,13 @@
             <v>43344</v>
           </cell>
           <cell r="B96">
-            <v>2.4826040000000003</v>
+            <v>2.5040420000000001</v>
           </cell>
           <cell r="C96">
-            <v>1.3095238095238095</v>
+            <v>1.3333333333333333</v>
           </cell>
           <cell r="E96">
-            <v>1.1730801904761907</v>
+            <v>1.1707086666666668</v>
           </cell>
         </row>
         <row r="97">
@@ -3161,13 +3161,13 @@
             <v>43374</v>
           </cell>
           <cell r="B97">
-            <v>2.4446530000000002</v>
+            <v>2.4666040000000002</v>
           </cell>
           <cell r="C97">
-            <v>1.3333333333333333</v>
+            <v>1.3571428571428572</v>
           </cell>
           <cell r="E97">
-            <v>1.1113196666666669</v>
+            <v>1.109461142857143</v>
           </cell>
         </row>
         <row r="98">
@@ -3175,13 +3175,13 @@
             <v>43405</v>
           </cell>
           <cell r="B98">
-            <v>2.3753829999999998</v>
+            <v>2.3977950000000003</v>
           </cell>
           <cell r="C98">
-            <v>1.3333333333333333</v>
+            <v>1.3571428571428572</v>
           </cell>
           <cell r="E98">
-            <v>1.0420496666666665</v>
+            <v>1.0406521428571431</v>
           </cell>
         </row>
         <row r="99">
@@ -3189,13 +3189,13 @@
             <v>43435</v>
           </cell>
           <cell r="B99">
-            <v>2.3103180000000001</v>
+            <v>2.3365100000000001</v>
           </cell>
           <cell r="C99">
-            <v>1.3571428571428572</v>
+            <v>1.3809523809523809</v>
           </cell>
           <cell r="E99">
-            <v>0.95317514285714289</v>
+            <v>0.95555761904761916</v>
           </cell>
         </row>
         <row r="103">
@@ -3205,7 +3205,7 @@
         </row>
         <row r="104">
           <cell r="A104">
-            <v>48</v>
+            <v>49</v>
           </cell>
           <cell r="B104">
             <v>0</v>
@@ -3213,7 +3213,7 @@
         </row>
         <row r="105">
           <cell r="A105">
-            <v>48</v>
+            <v>49</v>
           </cell>
           <cell r="B105">
             <v>1</v>
@@ -4311,12 +4311,12 @@
         <v>2.2185000000000001</v>
       </c>
       <c r="C72" s="2">
-        <v>1.0176190476190476</v>
+        <v>1.0173809523809523</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="15">
         <f t="shared" si="0"/>
-        <v>1.2008809523809525</v>
+        <v>1.2011190476190479</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4327,12 +4327,12 @@
         <v>2.2494000000000001</v>
       </c>
       <c r="C73" s="2">
-        <v>1.1007142857142858</v>
+        <v>1.1147619047619048</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="15">
         <f t="shared" si="0"/>
-        <v>1.1486857142857143</v>
+        <v>1.1346380952380952</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4343,12 +4343,12 @@
         <v>2.1815000000000002</v>
       </c>
       <c r="C74" s="2">
-        <v>1.0645238095238094</v>
+        <v>1.0626190476190476</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="15">
         <f t="shared" si="0"/>
-        <v>1.1169761904761908</v>
+        <v>1.1188809523809526</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4372,15 +4372,15 @@
         <v>42736</v>
       </c>
       <c r="B76" s="2">
-        <v>2.312249</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="C76" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2259523809523809</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="15">
         <f t="shared" si="0"/>
-        <v>1.0979632857142858</v>
+        <v>1.1230476190476193</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,15 +4388,15 @@
         <v>42767</v>
       </c>
       <c r="B77" s="2">
-        <v>2.262359</v>
+        <v>2.2653180000000002</v>
       </c>
       <c r="C77" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="15">
         <f t="shared" si="0"/>
-        <v>1.0480732857142858</v>
+        <v>1.027222761904762</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,15 +4404,15 @@
         <v>42795</v>
       </c>
       <c r="B78" s="2">
-        <v>2.3390569999999999</v>
+        <v>2.3300589999999999</v>
       </c>
       <c r="C78" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="15">
         <f t="shared" si="0"/>
-        <v>1.1247712857142858</v>
+        <v>1.0919637619047617</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4420,15 +4420,15 @@
         <v>42826</v>
       </c>
       <c r="B79" s="2">
-        <v>2.4156360000000001</v>
+        <v>2.4121079999999999</v>
       </c>
       <c r="C79" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="15">
         <f t="shared" si="0"/>
-        <v>1.2013502857142859</v>
+        <v>1.1740127619047618</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4436,15 +4436,15 @@
         <v>42856</v>
       </c>
       <c r="B80" s="2">
-        <v>2.4740009999999999</v>
+        <v>2.4752559999999999</v>
       </c>
       <c r="C80" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="15">
         <f t="shared" si="0"/>
-        <v>1.2597152857142857</v>
+        <v>1.2371607619047618</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4452,15 +4452,15 @@
         <v>42887</v>
       </c>
       <c r="B81" s="2">
-        <v>2.5003660000000001</v>
+        <v>2.5090520000000001</v>
       </c>
       <c r="C81" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="15">
         <f t="shared" si="0"/>
-        <v>1.2860802857142859</v>
+        <v>1.2709567619047619</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,15 +4468,15 @@
         <v>42917</v>
       </c>
       <c r="B82" s="2">
-        <v>2.497795</v>
+        <v>2.5114429999999999</v>
       </c>
       <c r="C82" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="15">
         <f t="shared" si="0"/>
-        <v>1.2596997619047618</v>
+        <v>1.249538238095238</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -4486,15 +4486,15 @@
         <v>42948</v>
       </c>
       <c r="B83" s="2">
-        <v>2.4748320000000001</v>
+        <v>2.491959</v>
       </c>
       <c r="C83" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="15">
         <f t="shared" si="0"/>
-        <v>1.236736761904762</v>
+        <v>1.2300542380952382</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,15 +4502,15 @@
         <v>42979</v>
       </c>
       <c r="B84" s="2">
-        <v>2.4153910000000001</v>
+        <v>2.4348700000000001</v>
       </c>
       <c r="C84" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="15">
         <f t="shared" si="0"/>
-        <v>1.1772957619047619</v>
+        <v>1.1729652380952382</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4518,15 +4518,15 @@
         <v>43009</v>
       </c>
       <c r="B85" s="2">
-        <v>2.3584520000000002</v>
+        <v>2.3794970000000002</v>
       </c>
       <c r="C85" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="15">
         <f t="shared" si="0"/>
-        <v>1.1203567619047621</v>
+        <v>1.1175922380952383</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4534,15 +4534,15 @@
         <v>43040</v>
       </c>
       <c r="B86" s="2">
-        <v>2.2836789999999998</v>
+        <v>2.3057409999999998</v>
       </c>
       <c r="C86" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="15">
         <f t="shared" si="0"/>
-        <v>1.0455837619047617</v>
+        <v>1.043836238095238</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4550,15 +4550,15 @@
         <v>43070</v>
       </c>
       <c r="B87" s="2">
-        <v>2.2135449999999999</v>
+        <v>2.2396579999999999</v>
       </c>
       <c r="C87" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="15">
         <f t="shared" si="0"/>
-        <v>0.97544976190476174</v>
+        <v>0.97775323809523806</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4566,15 +4566,15 @@
         <v>43101</v>
       </c>
       <c r="B88" s="2">
-        <v>2.183897</v>
+        <v>2.2080340000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="15">
         <f t="shared" si="0"/>
-        <v>0.94580176190476184</v>
+        <v>0.94612923809523819</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4582,15 +4582,15 @@
         <v>43132</v>
       </c>
       <c r="B89" s="2">
-        <v>2.2030210000000001</v>
+        <v>2.2349170000000003</v>
       </c>
       <c r="C89" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="15">
         <f t="shared" si="0"/>
-        <v>0.96492576190476198</v>
+        <v>0.9730122380952384</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4598,15 +4598,15 @@
         <v>43160</v>
       </c>
       <c r="B90" s="2">
-        <v>2.3262670000000001</v>
+        <v>2.3516900000000001</v>
       </c>
       <c r="C90" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="15">
         <f t="shared" si="0"/>
-        <v>1.0881717619047619</v>
+        <v>1.0897852380952382</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,15 +4614,15 @@
         <v>43191</v>
       </c>
       <c r="B91" s="2">
-        <v>2.4414859999999998</v>
+        <v>2.4657640000000001</v>
       </c>
       <c r="C91" s="2">
-        <v>1.2619047619047619</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="15">
         <f t="shared" si="0"/>
-        <v>1.179581238095238</v>
+        <v>1.1800497142857143</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4630,15 +4630,15 @@
         <v>43221</v>
       </c>
       <c r="B92" s="2">
-        <v>2.520947</v>
+        <v>2.5413679999999998</v>
       </c>
       <c r="C92" s="2">
-        <v>1.2857142857142858</v>
+        <v>1.3095238095238095</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="15">
         <f t="shared" ref="E92:E99" si="1">B92-C92</f>
-        <v>1.2352327142857142</v>
+        <v>1.2318441904761903</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4646,15 +4646,15 @@
         <v>43252</v>
       </c>
       <c r="B93" s="2">
-        <v>2.558662</v>
+        <v>2.5793490000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>1.2857142857142858</v>
+        <v>1.3095238095238095</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="15">
         <f t="shared" si="1"/>
-        <v>1.2729477142857142</v>
+        <v>1.2698251904761906</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4662,15 +4662,15 @@
         <v>43282</v>
       </c>
       <c r="B94" s="2">
-        <v>2.5432939999999999</v>
+        <v>2.5639419999999999</v>
       </c>
       <c r="C94" s="2">
-        <v>1.2857142857142858</v>
+        <v>1.3095238095238095</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="15">
         <f t="shared" si="1"/>
-        <v>1.2575797142857141</v>
+        <v>1.2544181904761904</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4678,15 +4678,15 @@
         <v>43313</v>
       </c>
       <c r="B95" s="2">
-        <v>2.5367660000000001</v>
+        <v>2.5577239999999999</v>
       </c>
       <c r="C95" s="2">
-        <v>1.3095238095238095</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="15">
         <f t="shared" si="1"/>
-        <v>1.2272421904761905</v>
+        <v>1.2243906666666666</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4694,15 +4694,15 @@
         <v>43344</v>
       </c>
       <c r="B96" s="2">
-        <v>2.4826040000000003</v>
+        <v>2.5040420000000001</v>
       </c>
       <c r="C96" s="2">
-        <v>1.3095238095238095</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="15">
         <f t="shared" si="1"/>
-        <v>1.1730801904761907</v>
+        <v>1.1707086666666668</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4710,15 +4710,15 @@
         <v>43374</v>
       </c>
       <c r="B97" s="2">
-        <v>2.4446530000000002</v>
+        <v>2.4666040000000002</v>
       </c>
       <c r="C97" s="2">
-        <v>1.3333333333333333</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="15">
         <f t="shared" si="1"/>
-        <v>1.1113196666666669</v>
+        <v>1.109461142857143</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4726,15 +4726,15 @@
         <v>43405</v>
       </c>
       <c r="B98" s="2">
-        <v>2.3753829999999998</v>
+        <v>2.3977950000000003</v>
       </c>
       <c r="C98" s="2">
-        <v>1.3333333333333333</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="15">
         <f t="shared" si="1"/>
-        <v>1.0420496666666665</v>
+        <v>1.0406521428571431</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4742,15 +4742,15 @@
         <v>43435</v>
       </c>
       <c r="B99" s="18">
-        <v>2.3103180000000001</v>
+        <v>2.3365100000000001</v>
       </c>
       <c r="C99" s="18">
-        <v>1.3571428571428572</v>
+        <v>1.3809523809523809</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20">
         <f t="shared" si="1"/>
-        <v>0.95317514285714289</v>
+        <v>0.95555761904761916</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4774,7 +4774,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
